--- a/biology/Zoologie/Les_Derniers_Hommes_éléphants/Les_Derniers_Hommes_éléphants.xlsx
+++ b/biology/Zoologie/Les_Derniers_Hommes_éléphants/Les_Derniers_Hommes_éléphants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Derniers_Hommes_%C3%A9l%C3%A9phants</t>
+          <t>Les_Derniers_Hommes_éléphants</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Derniers Hommes éléphants (Last of the Elephant Men) est un documentaire de 86 minutes canado-français réalisé par Daniel Ferguson et Arnaud Bouquet, sorti en 2015[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Derniers Hommes éléphants (Last of the Elephant Men) est un documentaire de 86 minutes canado-français réalisé par Daniel Ferguson et Arnaud Bouquet, sorti en 2015.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Derniers_Hommes_%C3%A9l%C3%A9phants</t>
+          <t>Les_Derniers_Hommes_éléphants</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce film raconte comment le mode de vie et les traditions des Bunongs au Cambodge, un peuple qui vit en harmonie avec les éléphants, sont aujourd'hui menacés de disparition du fait de l'exploitation de leurs terres par des compagnies de caoutchouc et de la difficulté pour les anciens de transmettre leur culture aux plus jeunes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce film raconte comment le mode de vie et les traditions des Bunongs au Cambodge, un peuple qui vit en harmonie avec les éléphants, sont aujourd'hui menacés de disparition du fait de l'exploitation de leurs terres par des compagnies de caoutchouc et de la difficulté pour les anciens de transmettre leur culture aux plus jeunes.
 Le documentaire cherche à montrer comment, en déboisant les forêts, ces entreprises chassent les éléphants et détruisent le lien fragile qui unit les habitants de la région à ces animaux, lien sur lequel s'est construite toute la culture ancestrale bunong.
 À travers l'histoire singulière de ce peuple, le film développe des pistes de réflexion plus universelles sur la préservation de la mémoire et de l'héritage collectif, sur la protection de la nature, ou encore sur la survie de certains peuples face au système capitaliste.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Derniers_Hommes_%C3%A9l%C3%A9phants</t>
+          <t>Les_Derniers_Hommes_éléphants</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Les Derniers Hommes éléphants
 Titre international : Last of the Elephant Men
@@ -583,7 +599,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Derniers_Hommes_%C3%A9l%C3%A9phants</t>
+          <t>Les_Derniers_Hommes_éléphants</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -601,9 +617,11 @@
           <t>Réception critique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'une façon générale le film a reçu un bon accueil auprès des critiques. Le journal La Presse, trouve dans la qualité esthétique du film (« les toutes premières images du film (...) sont prenantes. La musique piquée d'accents langoureux de violoncelle, traduisant la plainte, le mal de l'âme traversant toute l'œuvre »[3]) un moyen d'immerger le spectateur dans le documentaire, qui en ressort « éduqué » et « indigné »[3]. Pour le site MédiaFilm, le documentaire porte un « Regard sensible et poétique sur les forces qui menacent l'homme et son environnement » et « s'impose par son portrait sensible d'un monde fragile, sur le point de disparaître. » Le journal Le Devoir note aussi qu'à « travers le combat du peuple bunong pour la préservation de sa culture, s'esquisse une émouvante réflexion sur l'avenir de notre planète »[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'une façon générale le film a reçu un bon accueil auprès des critiques. Le journal La Presse, trouve dans la qualité esthétique du film (« les toutes premières images du film (...) sont prenantes. La musique piquée d'accents langoureux de violoncelle, traduisant la plainte, le mal de l'âme traversant toute l'œuvre ») un moyen d'immerger le spectateur dans le documentaire, qui en ressort « éduqué » et « indigné ». Pour le site MédiaFilm, le documentaire porte un « Regard sensible et poétique sur les forces qui menacent l'homme et son environnement » et « s'impose par son portrait sensible d'un monde fragile, sur le point de disparaître. » Le journal Le Devoir note aussi qu'à « travers le combat du peuple bunong pour la préservation de sa culture, s'esquisse une émouvante réflexion sur l'avenir de notre planète ».
 </t>
         </is>
       </c>
@@ -614,7 +632,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Les_Derniers_Hommes_%C3%A9l%C3%A9phants</t>
+          <t>Les_Derniers_Hommes_éléphants</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -632,13 +650,15 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En compétition - RIDM 2014 - Rencontres internationales du documentaire de Montréal[5]
-Sélection officielle - Festival international canadien du documentaire Hot Docs 2015[6]
-En compétition - One World 2015 - International Human Rights Documentary Film Festival[7]
-Sélection officielle - KLEFF 2015 - Kuala Lumpur Eco Film Festival[8]
-Sélection officielle - The KOMAS FFF 2015 - FreedomFilmFest in Malaysia (en)[9]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En compétition - RIDM 2014 - Rencontres internationales du documentaire de Montréal
+Sélection officielle - Festival international canadien du documentaire Hot Docs 2015
+En compétition - One World 2015 - International Human Rights Documentary Film Festival
+Sélection officielle - KLEFF 2015 - Kuala Lumpur Eco Film Festival
+Sélection officielle - The KOMAS FFF 2015 - FreedomFilmFest in Malaysia (en)
 GAGNANT - Prix Écran canadiens - Meilleure direction photographique pour un film documentaire - Toronto 2016
 Finaliste  - Prix Écrans Canadiens - Meilleur film documentaire et Meilleur montage pour un film documentaire - Toronto 2016
 Finaliste - International Green Film Award - Cinema for Peace - Berlin 2016
